--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3322.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3322.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9778869382993023</v>
+        <v>1.816149353981018</v>
       </c>
       <c r="B1">
-        <v>1.218371576820623</v>
+        <v>4.551989555358887</v>
       </c>
       <c r="C1">
-        <v>1.73906909182451</v>
+        <v>3.946398019790649</v>
       </c>
       <c r="D1">
-        <v>6.024806390373178</v>
+        <v>0.9041378498077393</v>
       </c>
       <c r="E1">
-        <v>4.975644648467552</v>
+        <v>0.4745079874992371</v>
       </c>
     </row>
   </sheetData>
